--- a/TestData/LTE001_CreateShipment_TestData_18Apr.xlsx
+++ b/TestData/LTE001_CreateShipment_TestData_18Apr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\NewTest data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF69F4-902E-4BB4-837A-1ECD58A67E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CC70ED-3E24-4D66-A18C-E4A675A4A689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="10" xr2:uid="{065DB981-2341-4EA4-A395-B9D7BE870DB1}"/>
   </bookViews>
@@ -4115,8 +4115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588B3A75-C7DB-40C6-BCDF-882DAD4C0277}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4194,7 +4194,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -4238,7 +4238,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -4282,10 +4282,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -4326,10 +4326,10 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -4370,7 +4370,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -4414,10 +4414,10 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -4458,7 +4458,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -4502,7 +4502,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -4546,7 +4546,7 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -4590,7 +4590,7 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -4634,7 +4634,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -4678,10 +4678,10 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -4722,10 +4722,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -4766,10 +4766,10 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -4810,10 +4810,10 @@
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -4854,7 +4854,7 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -4898,7 +4898,7 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
@@ -4942,10 +4942,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
@@ -4989,7 +4989,7 @@
         <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -5033,7 +5033,7 @@
         <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
@@ -5074,7 +5074,7 @@
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
         <v>24</v>
@@ -5118,7 +5118,7 @@
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -5162,10 +5162,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
         <v>18</v>
@@ -5206,10 +5206,10 @@
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
         <v>18</v>
@@ -5250,7 +5250,7 @@
         <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
@@ -5294,10 +5294,10 @@
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
@@ -5338,7 +5338,7 @@
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
         <v>24</v>
@@ -5382,7 +5382,7 @@
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -5426,7 +5426,7 @@
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
         <v>24</v>
@@ -5470,7 +5470,7 @@
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -5514,7 +5514,7 @@
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
         <v>24</v>
@@ -5558,10 +5558,10 @@
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
         <v>18</v>
@@ -5602,10 +5602,10 @@
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
         <v>18</v>
@@ -5646,10 +5646,10 @@
         <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G35" t="s">
         <v>18</v>
@@ -5690,10 +5690,10 @@
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
         <v>18</v>
@@ -5734,7 +5734,7 @@
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -5778,7 +5778,7 @@
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F38" t="s">
         <v>24</v>
@@ -5822,10 +5822,10 @@
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
         <v>18</v>
@@ -5869,7 +5869,7 @@
         <v>61</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
         <v>18</v>
@@ -5913,7 +5913,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G41" t="s">
         <v>18</v>
@@ -5954,7 +5954,7 @@
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
         <v>24</v>
@@ -5998,7 +5998,7 @@
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -6042,10 +6042,10 @@
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
         <v>18</v>
@@ -6086,10 +6086,10 @@
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
         <v>18</v>
@@ -6130,7 +6130,7 @@
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F46" t="s">
         <v>24</v>
@@ -6174,10 +6174,10 @@
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
         <v>18</v>
@@ -6218,7 +6218,7 @@
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F48" t="s">
         <v>24</v>
@@ -6262,7 +6262,7 @@
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -6306,7 +6306,7 @@
         <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s">
         <v>24</v>
@@ -6350,7 +6350,7 @@
         <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
